--- a/config_11.2/game_enter_btn_config.xlsx
+++ b/config_11.2/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="392">
   <si>
     <t>id|行号</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>down2</t>
-  </si>
-  <si>
-    <t>126#</t>
   </si>
   <si>
     <t>Right_down</t>
@@ -1545,6 +1542,22 @@
       </rPr>
       <t>147#</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_063_xrhb",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人红包</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_new_player_red_bag</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>148;126#</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2619,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2674,7 +2687,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2683,10 +2696,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2694,10 +2707,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2705,10 +2718,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2716,10 +2729,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2727,10 +2740,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2788,7 +2801,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2868,7 +2881,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2876,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2889,7 +2902,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,10 +2910,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2908,10 +2921,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2919,10 +2932,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2930,10 +2943,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2983,7 +2996,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3152,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3199,7 +3212,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3237,10 +3250,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3281,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3298,13 +3311,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
+      <selection pane="bottomRight" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,22 +3333,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3343,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3353,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3361,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3371,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3379,19 +3392,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3399,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3409,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3417,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3427,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3435,7 +3448,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3445,7 +3458,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3453,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3463,7 +3476,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3471,7 +3484,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3481,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3489,7 +3502,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3499,7 +3512,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3507,7 +3520,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3517,7 +3530,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3525,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3535,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3543,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3553,7 +3566,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3561,7 +3574,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3571,7 +3584,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3579,7 +3592,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3589,7 +3602,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3597,7 +3610,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3607,7 +3620,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3615,7 +3628,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3625,7 +3638,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3633,7 +3646,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3643,7 +3656,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3651,7 +3664,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3661,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3669,7 +3682,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3679,7 +3692,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3687,7 +3700,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3697,7 +3710,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3705,7 +3718,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3715,7 +3728,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3723,7 +3736,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3733,7 +3746,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3741,7 +3754,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3751,7 +3764,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3759,7 +3772,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3769,7 +3782,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3777,7 +3790,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3787,7 +3800,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3795,7 +3808,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3805,7 +3818,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3813,7 +3826,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3823,7 +3836,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3831,7 +3844,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3841,7 +3854,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3849,7 +3862,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3859,7 +3872,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3867,7 +3880,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3877,7 +3890,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3885,7 +3898,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3895,7 +3908,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3903,7 +3916,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3913,7 +3926,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3921,7 +3934,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3931,7 +3944,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3939,7 +3952,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3949,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3957,7 +3970,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3967,7 +3980,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3975,7 +3988,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3985,7 +3998,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3993,7 +4006,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -4003,7 +4016,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4011,7 +4024,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -4021,7 +4034,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4029,7 +4042,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -4039,7 +4052,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4047,7 +4060,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -4057,7 +4070,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4065,7 +4078,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4074,7 +4087,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4082,7 +4095,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4091,7 +4104,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4099,7 +4112,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4108,7 +4121,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,7 +4129,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4125,7 +4138,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4133,7 +4146,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4142,7 +4155,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4150,7 +4163,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4159,7 +4172,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4167,7 +4180,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4176,7 +4189,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4184,7 +4197,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4193,7 +4206,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4201,7 +4214,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4210,7 +4223,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,7 +4231,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4227,7 +4240,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4235,7 +4248,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4244,7 +4257,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4252,7 +4265,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4261,7 +4274,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4269,7 +4282,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4279,7 +4292,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,7 +4300,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4296,7 +4309,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4304,7 +4317,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4313,7 +4326,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4321,7 +4334,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4330,7 +4343,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4338,7 +4351,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4347,7 +4360,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4355,7 +4368,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4364,7 +4377,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4372,7 +4385,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4381,7 +4394,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,7 +4402,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4398,7 +4411,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4406,7 +4419,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4415,7 +4428,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4423,7 +4436,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4432,7 +4445,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4440,7 +4453,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4449,7 +4462,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4457,7 +4470,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4466,7 +4479,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4474,7 +4487,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4483,7 +4496,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4491,7 +4504,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4500,7 +4513,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4508,7 +4521,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4517,7 +4530,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4525,7 +4538,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4534,7 +4547,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4542,7 +4555,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4551,7 +4564,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4559,7 +4572,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4568,7 +4581,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4576,7 +4589,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4585,7 +4598,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4593,7 +4606,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4602,7 +4615,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4610,7 +4623,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4619,7 +4632,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4627,7 +4640,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4636,7 +4649,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4644,7 +4657,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4653,7 +4666,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4661,7 +4674,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4670,7 +4683,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4678,7 +4691,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4687,7 +4700,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4695,7 +4708,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4704,7 +4717,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4712,7 +4725,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4721,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4729,7 +4742,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4738,7 +4751,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4746,7 +4759,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4755,7 +4768,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4763,7 +4776,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4772,7 +4785,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4780,7 +4793,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4789,7 +4802,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4797,7 +4810,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4806,7 +4819,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4814,7 +4827,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4823,7 +4836,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4831,7 +4844,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4840,7 +4853,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4848,19 +4861,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4868,7 +4881,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4877,7 +4890,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4885,7 +4898,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4894,7 +4907,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4902,7 +4915,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4911,7 +4924,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4919,7 +4932,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4928,7 +4941,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4936,7 +4949,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4945,7 +4958,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,7 +4966,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4962,7 +4975,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4970,7 +4983,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4979,7 +4992,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4987,7 +5000,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4996,7 +5009,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5004,7 +5017,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5013,7 +5026,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5021,7 +5034,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5031,7 +5044,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5039,7 +5052,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5048,7 +5061,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5056,7 +5069,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5065,7 +5078,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5073,7 +5086,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5082,7 +5095,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5090,19 +5103,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5110,7 +5123,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5119,7 +5132,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5127,7 +5140,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5136,7 +5149,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5144,7 +5157,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -5153,7 +5166,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5161,19 +5174,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5181,7 +5194,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5190,7 +5203,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5198,7 +5211,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5207,7 +5220,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5215,7 +5228,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5224,7 +5237,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5232,7 +5245,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5241,7 +5254,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5249,7 +5262,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5258,7 +5271,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5266,7 +5279,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5275,7 +5288,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5283,7 +5296,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5292,7 +5305,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5300,7 +5313,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5309,7 +5322,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5317,7 +5330,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5326,7 +5339,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5334,19 +5347,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5354,19 +5367,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5374,7 +5387,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5383,7 +5396,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5391,7 +5404,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5400,7 +5413,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5408,7 +5421,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5417,7 +5430,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5425,7 +5438,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5434,7 +5447,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5442,7 +5455,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5451,7 +5464,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5459,7 +5472,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5468,7 +5481,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5476,7 +5489,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5485,7 +5498,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5493,7 +5506,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5502,7 +5515,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5510,7 +5523,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5519,7 +5532,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5527,7 +5540,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5536,7 +5549,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5544,7 +5557,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5553,7 +5566,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5561,19 +5574,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5581,19 +5594,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5601,19 +5614,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5621,19 +5634,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5641,7 +5654,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5651,7 +5664,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5659,7 +5672,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5668,7 +5681,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5676,19 +5689,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5696,19 +5709,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5716,19 +5729,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5736,19 +5749,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5756,19 +5769,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5776,7 +5789,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5786,7 +5799,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5794,19 +5807,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5814,19 +5827,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5834,19 +5847,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
         <v>360</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>361</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5854,19 +5867,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5874,7 +5887,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5883,7 +5896,7 @@
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5891,19 +5904,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E146">
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5911,19 +5924,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E147">
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5931,19 +5944,39 @@
         <v>147</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E148">
         <v>147</v>
       </c>
       <c r="F148" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E149">
+        <v>148</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5997,7 +6030,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6084,7 +6117,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6348,7 +6381,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6386,7 +6419,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6405,7 +6438,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>

--- a/config_11.2/game_enter_btn_config.xlsx
+++ b/config_11.2/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="393">
   <si>
     <t>id|行号</t>
   </si>
@@ -1459,10 +1459,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"act_062_hghd",</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>cpl_notcjj</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1558,6 +1554,14 @@
   </si>
   <si>
     <t>148;126#</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","hghd","enter"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2632,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2687,7 +2691,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -3253,7 +3257,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3313,11 +3317,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E127" sqref="E127"/>
+      <selection pane="bottomRight" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5634,7 +5638,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
@@ -5910,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E146">
         <v>145</v>
@@ -5944,19 +5948,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E148">
         <v>147</v>
       </c>
       <c r="F148" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5964,19 +5968,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C149">
         <v>4</v>
       </c>
       <c r="D149" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E149">
         <v>148</v>
       </c>
       <c r="F149" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -6419,7 +6423,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6438,7 +6442,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>

--- a/config_11.2/game_enter_btn_config.xlsx
+++ b/config_11.2/game_enter_btn_config.xlsx
@@ -3321,7 +3321,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B149" sqref="B149"/>
+      <selection pane="bottomRight" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5971,7 +5971,7 @@
         <v>387</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D149" s="29" t="s">
         <v>389</v>
